--- a/xlsx/HEMTT_intext.xlsx
+++ b/xlsx/HEMTT_intext.xlsx
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>政策_政策_混合動力車輛_HEMTT</t>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>政策_政策_混合动力车辆_HEMTT</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%99%B8%E8%BB%8D</t>
   </si>
   <si>
-    <t>美國陸軍</t>
+    <t>美国陆军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
@@ -65,13 +65,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B5%B7%E8%BB%8D%E9%99%B8%E6%88%B0%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國海軍陸戰隊</t>
+    <t>美国海军陆战队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%B2%E5%A3%93</t>
   </si>
   <si>
-    <t>液壓</t>
+    <t>液压</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/C-130</t>
@@ -83,31 +83,31 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E8%BC%B8%E6%A9%9F</t>
   </si>
   <si>
-    <t>運輸機</t>
+    <t>运输机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%9C%8B%E8%80%85%E9%A3%9B%E5%BD%88</t>
   </si>
   <si>
-    <t>愛國者飛彈</t>
+    <t>爱国者飞弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E5%90%88%E5%8B%95%E5%8A%9B%E8%BB%8A%E8%BC%9B</t>
   </si>
   <si>
-    <t>混合動力車輛</t>
+    <t>混合动力车辆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8A%E4%B8%8A%E8%A8%BA%E6%96%B7%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>車上診斷系統</t>
+    <t>车上诊断系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%83%8F%E5%9C%B0%E9%98%BF%E6%8B%89%E4%BC%AF</t>
   </si>
   <si>
-    <t>沙烏地阿拉伯</t>
+    <t>沙乌地阿拉伯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>希臘</t>
+    <t>希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97</t>
@@ -143,13 +143,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E7%94%A8%E6%A5%B5%E9%99%90%E5%8D%A1%E8%BB%8A</t>
   </si>
   <si>
-    <t>軍用極限卡車</t>
+    <t>军用极限卡车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E5%9E%8B%E5%A2%9E%E7%A8%8B%E6%A9%9F%E5%8B%95%E6%88%B0%E8%A1%93%E5%8D%A1%E8%BB%8A</t>
